--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\その他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
     <sheet name="テーブル定義" sheetId="5" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
-    <sheet name="ER図" sheetId="4" r:id="rId5"/>
-    <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="画面UI" sheetId="8" r:id="rId5"/>
+    <sheet name="ER図" sheetId="4" r:id="rId6"/>
+    <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$55</definedName>
@@ -1715,6 +1716,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,35 +1734,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2023,6 +2024,939 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="12740640"/>
+          <a:ext cx="8564880" cy="6126480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="19050000"/>
+          <a:ext cx="8503920" cy="6156960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="25389840"/>
+          <a:ext cx="8534400" cy="6156960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548641</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>86937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91441" y="31851600"/>
+          <a:ext cx="8503920" cy="6030537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130885</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130885" y="6108551"/>
+          <a:ext cx="8555915" cy="5948979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91441" y="44500800"/>
+          <a:ext cx="8564880" cy="6126480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145228</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>632908</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="145228" y="96819"/>
+          <a:ext cx="8555915" cy="5918499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654139</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="38100000"/>
+          <a:ext cx="8670379" cy="6248399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060142" y="5656729"/>
+          <a:ext cx="2617694" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　アカウント登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>188260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6194612" y="17669436"/>
+          <a:ext cx="2483225" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　メイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537885</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5190566" y="23747506"/>
+          <a:ext cx="3415554" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　マイページ（過去投稿）画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6266329" y="42035506"/>
+          <a:ext cx="2429435" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　投稿モーダル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546846</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185646" y="47979106"/>
+          <a:ext cx="2429435" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　設定モーダル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636496</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289177" y="29798683"/>
+          <a:ext cx="3415554" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　マイページ（過去画像）画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="35805035"/>
+          <a:ext cx="3890682" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　マイページ（アカウント登録）画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645457</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6024281" y="11672047"/>
+          <a:ext cx="2617694" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>678180</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2079,7 +3013,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2391,9 +3325,9 @@
       <selection activeCell="A15" sqref="A15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
         <v>107</v>
       </c>
@@ -2410,7 +3344,7 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
       <c r="A15" s="55" t="s">
         <v>106</v>
       </c>
@@ -2449,39 +3383,39 @@
       <selection activeCell="H3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="4.875" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.625" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.59765625" customWidth="1"/>
     <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.375" customWidth="1"/>
-    <col min="12" max="12" width="108.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="107.3984375" customWidth="1"/>
+    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -2500,7 +3434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -2513,7 +3447,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="59" t="s">
         <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2523,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -2536,7 +3470,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="58"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2544,7 +3478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="11">
         <v>3</v>
       </c>
@@ -2557,7 +3491,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2565,7 +3499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H7" s="5">
         <v>4</v>
       </c>
@@ -2579,12 +3513,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="60" t="s">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -2598,7 +3532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="2"/>
       <c r="D9" s="37" t="s">
         <v>12</v>
@@ -2609,7 +3543,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="59" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2619,7 +3553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="14">
         <v>1</v>
       </c>
@@ -2632,7 +3566,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="58"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2640,11 +3574,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="58"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2652,16 +3586,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="60" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +3603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="2"/>
       <c r="D13" s="37" t="s">
         <v>12</v>
@@ -2680,7 +3614,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="59" t="s">
         <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2690,7 +3624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -2703,7 +3637,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2711,11 +3645,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="59" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2725,16 +3659,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="60" t="s">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="58"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +3676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="2"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
@@ -2753,7 +3687,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2761,7 +3695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="5">
         <v>1</v>
       </c>
@@ -2774,7 +3708,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="59" t="s">
         <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2784,7 +3718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -2797,7 +3731,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="59"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2805,7 +3739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -2828,7 +3762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="7">
         <v>4</v>
       </c>
@@ -2851,15 +3785,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="60" t="s">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
@@ -2868,7 +3802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -2879,7 +3813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -2890,46 +3824,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="43"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="56" t="s">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A31" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="61" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -2938,7 +3872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="5">
         <v>1</v>
       </c>
@@ -2949,7 +3883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -2960,7 +3894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C37" s="7">
         <v>3</v>
       </c>
@@ -2971,15 +3905,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="60" t="s">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -2988,7 +3922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="5">
         <v>1</v>
       </c>
@@ -2999,7 +3933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -3010,15 +3944,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="60" t="s">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C44" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
@@ -3027,7 +3961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -3038,15 +3972,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="60" t="s">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-    </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+    </row>
+    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -3055,7 +3989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -3066,11 +4000,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
@@ -3079,14 +4021,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3098,33 +4032,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScale="76" zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A47" zoomScale="76" zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="45.75" customWidth="1"/>
+    <col min="8" max="8" width="45.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3135,41 +4069,41 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -3180,7 +4114,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
         <v>70</v>
@@ -3205,7 +4139,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -3230,7 +4164,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -3253,7 +4187,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -3276,7 +4210,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -3299,7 +4233,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -3320,7 +4254,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -3343,7 +4277,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
@@ -3366,7 +4300,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -3387,7 +4321,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
@@ -3408,7 +4342,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3419,7 +4353,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3430,7 +4364,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3441,7 +4375,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -3452,7 +4386,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3463,7 +4397,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3474,7 +4408,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3485,7 +4419,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3496,54 +4430,54 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3554,7 +4488,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="34" t="s">
         <v>70</v>
@@ -3579,7 +4513,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="31">
         <v>1</v>
@@ -3604,7 +4538,7 @@
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="31">
         <v>2</v>
@@ -3627,7 +4561,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="31">
         <v>3</v>
@@ -3650,7 +4584,7 @@
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="31">
         <v>4</v>
@@ -3673,7 +4607,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="33">
         <v>5</v>
@@ -3694,7 +4628,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="49"/>
       <c r="C34" s="22"/>
@@ -3705,7 +4639,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3716,41 +4650,41 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65" t="s">
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="66"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3761,7 +4695,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="34" t="s">
         <v>70</v>
@@ -3786,7 +4720,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="31">
         <v>1</v>
@@ -3811,7 +4745,7 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="33">
         <v>2</v>
@@ -3834,7 +4768,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="49"/>
       <c r="C42" s="22"/>
@@ -3845,7 +4779,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="49"/>
       <c r="C43" s="22"/>
@@ -3856,7 +4790,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3867,7 +4801,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3878,7 +4812,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3889,7 +4823,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3900,54 +4834,54 @@
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="63"/>
+      <c r="D49" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="69"/>
+      <c r="H49" s="64"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65" t="s">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65" t="s">
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="66"/>
+      <c r="H50" s="67"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3958,7 +4892,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="34" t="s">
         <v>70</v>
@@ -3983,7 +4917,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="31">
         <v>1</v>
@@ -4008,7 +4942,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="31">
         <v>2</v>
@@ -4031,7 +4965,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="33">
         <v>3</v>
@@ -4054,7 +4988,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4065,7 +4999,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -4076,7 +5010,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -4089,17 +5023,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -4116,6 +5039,17 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4131,12 +5065,12 @@
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="13" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="71" t="s">
         <v>123</v>
       </c>
@@ -4153,7 +5087,7 @@
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -4168,7 +5102,7 @@
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>124</v>
       </c>
@@ -4185,7 +5119,7 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -4200,7 +5134,7 @@
       <c r="L28" s="72"/>
       <c r="M28" s="72"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="71" t="s">
         <v>125</v>
       </c>
@@ -4217,7 +5151,7 @@
       <c r="L53" s="72"/>
       <c r="M53" s="72"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="72"/>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -4232,7 +5166,7 @@
       <c r="L54" s="72"/>
       <c r="M54" s="72"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="71" t="s">
         <v>126</v>
       </c>
@@ -4249,7 +5183,7 @@
       <c r="L79" s="72"/>
       <c r="M79" s="72"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="72"/>
       <c r="B80" s="72"/>
       <c r="C80" s="72"/>
@@ -4264,7 +5198,7 @@
       <c r="L80" s="72"/>
       <c r="M80" s="72"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="71" t="s">
         <v>127</v>
       </c>
@@ -4281,7 +5215,7 @@
       <c r="L105" s="72"/>
       <c r="M105" s="72"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="72"/>
       <c r="B106" s="72"/>
       <c r="C106" s="72"/>
@@ -4296,7 +5230,7 @@
       <c r="L106" s="72"/>
       <c r="M106" s="72"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="71" t="s">
         <v>128</v>
       </c>
@@ -4313,7 +5247,7 @@
       <c r="L131" s="72"/>
       <c r="M131" s="72"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="72"/>
       <c r="B132" s="72"/>
       <c r="C132" s="72"/>
@@ -4328,7 +5262,7 @@
       <c r="L132" s="72"/>
       <c r="M132" s="72"/>
     </row>
-    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="73" t="s">
         <v>129</v>
       </c>
@@ -4362,63 +5296,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="O154" sqref="O154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4431,7 +5382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4439,7 +5390,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -1716,23 +1716,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1742,21 +1757,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2957,55 +2957,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>522696</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>293907</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>153405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="https://lh5.googleusercontent.com/nVdx0fSs7933cbW7iVFN9uBCOIGokLsapKw3ewPO58bbc28D_1JUTz1Yxfun2p4EoFo0tDgqfISlc4KgOPg98BO1j7YuH-YgfyNV1wYxsyWn6bHKgPMSFtuNIItD-rgTc-DhHER0RQ"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1363980" y="922020"/>
-          <a:ext cx="6153876" cy="4975860"/>
+          <a:off x="1647825" y="1123950"/>
+          <a:ext cx="5599332" cy="4734930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3325,9 +3308,9 @@
       <selection activeCell="A15" sqref="A15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="54" t="s">
         <v>107</v>
       </c>
@@ -3344,7 +3327,7 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A15" s="55" t="s">
         <v>106</v>
       </c>
@@ -3383,39 +3366,39 @@
       <selection activeCell="H3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.625" customWidth="1"/>
     <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.3984375" customWidth="1"/>
-    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="107.375" customWidth="1"/>
+    <col min="12" max="12" width="108.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -3434,7 +3417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -3447,7 +3430,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="57" t="s">
         <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3457,7 +3440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -3470,7 +3453,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="11">
         <v>3</v>
       </c>
@@ -3491,7 +3474,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3499,7 +3482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H7" s="5">
         <v>4</v>
       </c>
@@ -3513,12 +3496,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="56" t="s">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -3532,7 +3515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>
       <c r="D9" s="37" t="s">
         <v>12</v>
@@ -3543,7 +3526,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3553,7 +3536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="14">
         <v>1</v>
       </c>
@@ -3566,7 +3549,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3574,11 +3557,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -3586,16 +3569,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="56" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3603,7 +3586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
       <c r="D13" s="37" t="s">
         <v>12</v>
@@ -3614,7 +3597,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="57" t="s">
         <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3624,7 +3607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -3637,7 +3620,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3645,11 +3628,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="57" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3659,16 +3642,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="56" t="s">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3676,7 +3659,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
@@ -3687,7 +3670,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3695,7 +3678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="5">
         <v>1</v>
       </c>
@@ -3708,7 +3691,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="57" t="s">
         <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3718,7 +3701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -3731,7 +3714,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3739,7 +3722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -3762,7 +3745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="7">
         <v>4</v>
       </c>
@@ -3785,15 +3768,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="56" t="s">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
@@ -3802,7 +3785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -3813,7 +3796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -3824,46 +3807,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="43"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="58" t="s">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="57" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -3872,7 +3855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="5">
         <v>1</v>
       </c>
@@ -3883,7 +3866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -3894,7 +3877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" s="7">
         <v>3</v>
       </c>
@@ -3905,15 +3888,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="56" t="s">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -3922,7 +3905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="5">
         <v>1</v>
       </c>
@@ -3933,7 +3916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -3944,15 +3927,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="56" t="s">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
@@ -3961,7 +3944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -3972,15 +3955,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="56" t="s">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-    </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+    </row>
+    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -3989,7 +3972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -4000,11 +3983,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="H1:K1"/>
@@ -4013,14 +4004,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4036,29 +4019,29 @@
       <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="45.69921875" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4069,41 +4052,41 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="64"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4114,7 +4097,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
         <v>70</v>
@@ -4139,7 +4122,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -4164,7 +4147,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -4187,7 +4170,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -4210,7 +4193,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -4233,7 +4216,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -4254,7 +4237,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -4277,7 +4260,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
@@ -4300,7 +4283,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -4321,7 +4304,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
@@ -4342,7 +4325,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4353,7 +4336,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -4364,7 +4347,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4375,7 +4358,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -4386,7 +4369,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -4397,7 +4380,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -4408,7 +4391,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -4419,7 +4402,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -4430,54 +4413,54 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="68" t="s">
+    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63" t="s">
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="64"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66" t="s">
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="67"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -4488,7 +4471,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="34" t="s">
         <v>70</v>
@@ -4513,7 +4496,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="31">
         <v>1</v>
@@ -4538,7 +4521,7 @@
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="31">
         <v>2</v>
@@ -4561,7 +4544,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="31">
         <v>3</v>
@@ -4584,7 +4567,7 @@
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="31">
         <v>4</v>
@@ -4607,7 +4590,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="33">
         <v>5</v>
@@ -4628,7 +4611,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="49"/>
       <c r="C34" s="22"/>
@@ -4639,7 +4622,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -4650,41 +4633,41 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63" t="s">
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="64"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66" t="s">
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="67"/>
+      <c r="H37" s="66"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -4695,7 +4678,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="34" t="s">
         <v>70</v>
@@ -4720,7 +4703,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="31">
         <v>1</v>
@@ -4745,7 +4728,7 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="33">
         <v>2</v>
@@ -4768,7 +4751,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="49"/>
       <c r="C42" s="22"/>
@@ -4779,7 +4762,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="49"/>
       <c r="C43" s="22"/>
@@ -4790,7 +4773,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -4801,7 +4784,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -4812,7 +4795,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -4823,7 +4806,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -4834,54 +4817,54 @@
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="68" t="s">
+    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63" t="s">
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="64"/>
+      <c r="H49" s="69"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66" t="s">
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="67"/>
+      <c r="H50" s="66"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -4892,7 +4875,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
       <c r="B52" s="34" t="s">
         <v>70</v>
@@ -4917,7 +4900,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
       <c r="B53" s="31">
         <v>1</v>
@@ -4942,7 +4925,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
       <c r="B54" s="31">
         <v>2</v>
@@ -4965,7 +4948,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="33">
         <v>3</v>
@@ -4988,7 +4971,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4999,7 +4982,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -5010,7 +4993,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5023,6 +5006,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -5039,17 +5033,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5065,12 +5048,12 @@
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="9.19921875" customWidth="1"/>
+    <col min="1" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="71" t="s">
         <v>123</v>
       </c>
@@ -5087,7 +5070,7 @@
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -5102,7 +5085,7 @@
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="71" t="s">
         <v>124</v>
       </c>
@@ -5119,7 +5102,7 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -5134,7 +5117,7 @@
       <c r="L28" s="72"/>
       <c r="M28" s="72"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="71" t="s">
         <v>125</v>
       </c>
@@ -5151,7 +5134,7 @@
       <c r="L53" s="72"/>
       <c r="M53" s="72"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="72"/>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -5166,7 +5149,7 @@
       <c r="L54" s="72"/>
       <c r="M54" s="72"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="71" t="s">
         <v>126</v>
       </c>
@@ -5183,7 +5166,7 @@
       <c r="L79" s="72"/>
       <c r="M79" s="72"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="72"/>
       <c r="B80" s="72"/>
       <c r="C80" s="72"/>
@@ -5198,7 +5181,7 @@
       <c r="L80" s="72"/>
       <c r="M80" s="72"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="71" t="s">
         <v>127</v>
       </c>
@@ -5215,7 +5198,7 @@
       <c r="L105" s="72"/>
       <c r="M105" s="72"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="72"/>
       <c r="B106" s="72"/>
       <c r="C106" s="72"/>
@@ -5230,7 +5213,7 @@
       <c r="L106" s="72"/>
       <c r="M106" s="72"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="71" t="s">
         <v>128</v>
       </c>
@@ -5247,7 +5230,7 @@
       <c r="L131" s="72"/>
       <c r="M131" s="72"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="72"/>
       <c r="B132" s="72"/>
       <c r="C132" s="72"/>
@@ -5262,7 +5245,7 @@
       <c r="L132" s="72"/>
       <c r="M132" s="72"/>
     </row>
-    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="73" t="s">
         <v>129</v>
       </c>
@@ -5302,7 +5285,7 @@
       <selection activeCell="O154" sqref="O154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5315,61 +5298,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5390,7 +5373,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
     <sheet name="テーブル定義" sheetId="5" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
-    <sheet name="画面UI" sheetId="8" r:id="rId5"/>
-    <sheet name="ER図" sheetId="4" r:id="rId6"/>
-    <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="ER図" sheetId="4" r:id="rId5"/>
+    <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$55</definedName>
@@ -1716,6 +1715,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,35 +1733,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2024,939 +2023,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="91440" y="12740640"/>
-          <a:ext cx="8564880" cy="6126480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="91440" y="19050000"/>
-          <a:ext cx="8503920" cy="6156960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="25389840"/>
-          <a:ext cx="8534400" cy="6156960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548641</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>86937</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="91441" y="31851600"/>
-          <a:ext cx="8503920" cy="6030537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>130885</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>48410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>618565</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="130885" y="6108551"/>
-          <a:ext cx="8555915" cy="5948979"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="91441" y="44500800"/>
-          <a:ext cx="8564880" cy="6126480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>145228</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>96819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>632908</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="145228" y="96819"/>
-          <a:ext cx="8555915" cy="5918499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>654139</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>213359</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30480" y="38100000"/>
-          <a:ext cx="8670379" cy="6248399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6060142" y="5656729"/>
-          <a:ext cx="2617694" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　アカウント登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>143436</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>188260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609602</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>62754</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6194612" y="17669436"/>
-          <a:ext cx="2483225" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　メイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>484095</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>537885</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5190566" y="23747506"/>
-          <a:ext cx="3415554" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　マイページ（過去投稿）画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215153</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6266329" y="42035506"/>
-          <a:ext cx="2429435" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　投稿モーダル画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>546846</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6185646" y="47979106"/>
-          <a:ext cx="2429435" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　設定モーダル画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>636496</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5289177" y="29798683"/>
-          <a:ext cx="3415554" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　マイページ（過去画像）画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>546847</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="35805035"/>
-          <a:ext cx="3890682" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　マイページ（アカウント登録）画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645457</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>573740</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6024281" y="11672047"/>
-          <a:ext cx="2617694" cy="340659"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　ログイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2996,7 +2062,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3308,9 +2374,9 @@
       <selection activeCell="A15" sqref="A15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
         <v>107</v>
       </c>
@@ -3327,7 +2393,7 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
       <c r="A15" s="55" t="s">
         <v>106</v>
       </c>
@@ -3366,39 +2432,39 @@
       <selection activeCell="H3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="4.875" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.625" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.59765625" customWidth="1"/>
     <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.375" customWidth="1"/>
-    <col min="12" max="12" width="108.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="107.3984375" customWidth="1"/>
+    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -3417,7 +2483,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -3430,7 +2496,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="59" t="s">
         <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3440,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -3453,7 +2519,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="58"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3461,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="11">
         <v>3</v>
       </c>
@@ -3474,7 +2540,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3482,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H7" s="5">
         <v>4</v>
       </c>
@@ -3496,12 +2562,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="60" t="s">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -3515,7 +2581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="2"/>
       <c r="D9" s="37" t="s">
         <v>12</v>
@@ -3526,7 +2592,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="59" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3536,7 +2602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="14">
         <v>1</v>
       </c>
@@ -3549,7 +2615,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="58"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3557,11 +2623,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="58"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -3569,16 +2635,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="60" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3586,7 +2652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="2"/>
       <c r="D13" s="37" t="s">
         <v>12</v>
@@ -3597,7 +2663,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="59" t="s">
         <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3607,7 +2673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -3620,7 +2686,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3628,11 +2694,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="59" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3642,16 +2708,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="60" t="s">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="58"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3659,7 +2725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="2"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
@@ -3670,7 +2736,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3678,7 +2744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="5">
         <v>1</v>
       </c>
@@ -3691,7 +2757,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="59" t="s">
         <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3701,7 +2767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -3714,7 +2780,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="59"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3722,7 +2788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -3745,7 +2811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="7">
         <v>4</v>
       </c>
@@ -3768,15 +2834,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="60" t="s">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
@@ -3785,7 +2851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -3796,7 +2862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -3807,46 +2873,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="43"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="56" t="s">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A31" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="61" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -3855,7 +2921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="5">
         <v>1</v>
       </c>
@@ -3866,7 +2932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -3877,7 +2943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C37" s="7">
         <v>3</v>
       </c>
@@ -3888,15 +2954,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="60" t="s">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -3905,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="5">
         <v>1</v>
       </c>
@@ -3916,7 +2982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -3927,15 +2993,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="60" t="s">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C44" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
@@ -3944,7 +3010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -3955,15 +3021,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="60" t="s">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-    </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+    </row>
+    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -3972,7 +3038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -3983,11 +3049,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
@@ -3996,14 +3070,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4019,29 +3085,29 @@
       <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="45.75" customWidth="1"/>
+    <col min="8" max="8" width="45.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4052,41 +3118,41 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4097,7 +3163,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
         <v>70</v>
@@ -4122,7 +3188,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -4147,7 +3213,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -4170,7 +3236,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -4193,7 +3259,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -4216,7 +3282,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -4237,7 +3303,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -4260,7 +3326,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
@@ -4283,7 +3349,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -4304,7 +3370,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
@@ -4325,7 +3391,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4336,7 +3402,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -4347,7 +3413,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4358,7 +3424,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -4369,7 +3435,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -4380,7 +3446,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -4391,7 +3457,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -4402,7 +3468,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -4413,54 +3479,54 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -4471,7 +3537,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="34" t="s">
         <v>70</v>
@@ -4496,7 +3562,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="31">
         <v>1</v>
@@ -4521,7 +3587,7 @@
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="31">
         <v>2</v>
@@ -4544,7 +3610,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="31">
         <v>3</v>
@@ -4567,7 +3633,7 @@
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="31">
         <v>4</v>
@@ -4590,7 +3656,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="33">
         <v>5</v>
@@ -4611,7 +3677,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="49"/>
       <c r="C34" s="22"/>
@@ -4622,7 +3688,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -4633,41 +3699,41 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65" t="s">
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="66"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -4678,7 +3744,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="34" t="s">
         <v>70</v>
@@ -4703,7 +3769,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="31">
         <v>1</v>
@@ -4728,7 +3794,7 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="33">
         <v>2</v>
@@ -4751,7 +3817,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="49"/>
       <c r="C42" s="22"/>
@@ -4762,7 +3828,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="49"/>
       <c r="C43" s="22"/>
@@ -4773,7 +3839,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -4784,7 +3850,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -4795,7 +3861,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -4806,7 +3872,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -4817,54 +3883,54 @@
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="63"/>
+      <c r="D49" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="69"/>
+      <c r="H49" s="64"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65" t="s">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65" t="s">
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="66"/>
+      <c r="H50" s="67"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -4875,7 +3941,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="34" t="s">
         <v>70</v>
@@ -4900,7 +3966,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="31">
         <v>1</v>
@@ -4925,7 +3991,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="31">
         <v>2</v>
@@ -4948,7 +4014,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="33">
         <v>3</v>
@@ -4971,7 +4037,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4982,7 +4048,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -4993,7 +4059,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5006,17 +4072,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -5033,6 +4088,17 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5048,12 +4114,12 @@
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="13" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="71" t="s">
         <v>123</v>
       </c>
@@ -5070,7 +4136,7 @@
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -5085,7 +4151,7 @@
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>124</v>
       </c>
@@ -5102,7 +4168,7 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -5117,7 +4183,7 @@
       <c r="L28" s="72"/>
       <c r="M28" s="72"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="71" t="s">
         <v>125</v>
       </c>
@@ -5134,7 +4200,7 @@
       <c r="L53" s="72"/>
       <c r="M53" s="72"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="72"/>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -5149,7 +4215,7 @@
       <c r="L54" s="72"/>
       <c r="M54" s="72"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="71" t="s">
         <v>126</v>
       </c>
@@ -5166,7 +4232,7 @@
       <c r="L79" s="72"/>
       <c r="M79" s="72"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="72"/>
       <c r="B80" s="72"/>
       <c r="C80" s="72"/>
@@ -5181,7 +4247,7 @@
       <c r="L80" s="72"/>
       <c r="M80" s="72"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="71" t="s">
         <v>127</v>
       </c>
@@ -5198,7 +4264,7 @@
       <c r="L105" s="72"/>
       <c r="M105" s="72"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="72"/>
       <c r="B106" s="72"/>
       <c r="C106" s="72"/>
@@ -5213,7 +4279,7 @@
       <c r="L106" s="72"/>
       <c r="M106" s="72"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="71" t="s">
         <v>128</v>
       </c>
@@ -5230,7 +4296,7 @@
       <c r="L131" s="72"/>
       <c r="M131" s="72"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="72"/>
       <c r="B132" s="72"/>
       <c r="C132" s="72"/>
@@ -5245,7 +4311,7 @@
       <c r="L132" s="72"/>
       <c r="M132" s="72"/>
     </row>
-    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="73" t="s">
         <v>129</v>
       </c>
@@ -5279,80 +4345,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="O154" sqref="O154"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5365,7 +4414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5373,7 +4422,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
     <sheet name="テーブル定義" sheetId="5" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
-    <sheet name="ER図" sheetId="4" r:id="rId5"/>
-    <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="画面UI" sheetId="8" r:id="rId5"/>
+    <sheet name="ER図" sheetId="4" r:id="rId6"/>
+    <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$H$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -879,16 +879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通機能</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
       <t>キノウメイ</t>
@@ -1216,6 +1206,117 @@
   </si>
   <si>
     <t>投稿タグテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面UI</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4p~6p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7p~12p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13p~20p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通機能　　　　　　　　　（メイン画面、マイページ画面、タイムライン画面）</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1548,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1665,9 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1709,6 +1807,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,9 +1865,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2023,6 +2133,939 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="12740640"/>
+          <a:ext cx="8564880" cy="6126480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="19050000"/>
+          <a:ext cx="8503920" cy="6156960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="25389840"/>
+          <a:ext cx="8534400" cy="6156960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548641</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>86937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91441" y="31851600"/>
+          <a:ext cx="8503920" cy="6030537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130885</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130885" y="6108551"/>
+          <a:ext cx="8555915" cy="5948979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91441" y="44500800"/>
+          <a:ext cx="8564880" cy="6126480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145228</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>632908</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="145228" y="96819"/>
+          <a:ext cx="8555915" cy="5918499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654139</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="38100000"/>
+          <a:ext cx="8670379" cy="6248399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060142" y="5656729"/>
+          <a:ext cx="2617694" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　アカウント登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>188260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6194612" y="17669436"/>
+          <a:ext cx="2483225" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　メイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537885</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5190566" y="23747506"/>
+          <a:ext cx="3415554" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　マイページ（過去投稿）画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6266329" y="42035506"/>
+          <a:ext cx="2429435" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　投稿モーダル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546846</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185646" y="47979106"/>
+          <a:ext cx="2429435" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　設定モーダル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636496</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289177" y="29798683"/>
+          <a:ext cx="3415554" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　マイページ（過去画像）画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="35805035"/>
+          <a:ext cx="3890682" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　マイページ（アカウント登録）画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645457</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6024281" y="11672047"/>
+          <a:ext cx="2617694" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2062,7 +3105,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2368,15 +3411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:M15"/>
+  <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:M15"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="54" t="s">
         <v>107</v>
       </c>
@@ -2393,7 +3436,7 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A15" s="55" t="s">
         <v>106</v>
       </c>
@@ -2410,13 +3453,110 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
     </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E29" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A15:M15"/>
+    <mergeCell ref="E29:I30"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E40:I40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
@@ -2428,22 +3568,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="H5" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.625" customWidth="1"/>
     <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.3984375" customWidth="1"/>
-    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="107.375" customWidth="1"/>
+    <col min="12" max="12" width="108.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -2459,12 +3599,12 @@
       <c r="I1" s="58"/>
       <c r="J1" s="58"/>
       <c r="K1" s="58"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -2472,18 +3612,20 @@
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="H3" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -2493,11 +3635,11 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="59" t="s">
-        <v>110</v>
+      <c r="I4" s="74" t="s">
+        <v>160</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>3</v>
@@ -2506,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -2516,10 +3658,10 @@
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="11">
         <v>3</v>
       </c>
@@ -2537,10 +3679,10 @@
       <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2548,12 +3690,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H7" s="5">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="10">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
@@ -2562,17 +3704,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="56" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
-      <c r="H8" s="5">
+      <c r="H8" s="10">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -2581,7 +3723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>
       <c r="D9" s="37" t="s">
         <v>12</v>
@@ -2589,11 +3731,11 @@
       <c r="E9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="10">
         <v>6</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -2602,7 +3744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="14">
         <v>1</v>
       </c>
@@ -2612,7 +3754,7 @@
       <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="10">
         <v>7</v>
       </c>
       <c r="I10" s="60"/>
@@ -2623,8 +3765,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H11" s="5">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="10">
         <v>8</v>
       </c>
       <c r="I11" s="60"/>
@@ -2635,13 +3777,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="56" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
-      <c r="H12" s="5">
+      <c r="H12" s="10">
         <v>9</v>
       </c>
       <c r="I12" s="61"/>
@@ -2652,7 +3794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
       <c r="D13" s="37" t="s">
         <v>12</v>
@@ -2660,11 +3802,11 @@
       <c r="E13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="10">
         <v>10</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
@@ -2673,7 +3815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -2683,7 +3825,7 @@
       <c r="E14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="10">
         <v>11</v>
       </c>
       <c r="I14" s="61"/>
@@ -2694,27 +3836,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H15" s="5">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="10">
         <v>12</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="H16" s="5">
+      <c r="H16" s="10">
         <v>13</v>
       </c>
       <c r="I16" s="60"/>
@@ -2725,7 +3867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
@@ -2733,7 +3875,7 @@
       <c r="E17" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="10">
         <v>14</v>
       </c>
       <c r="I17" s="61"/>
@@ -2744,7 +3886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="5">
         <v>1</v>
       </c>
@@ -2754,11 +3896,11 @@
       <c r="E18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="10">
         <v>15</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>39</v>
@@ -2767,7 +3909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -2777,7 +3919,7 @@
       <c r="E19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="10">
         <v>16</v>
       </c>
       <c r="I19" s="61"/>
@@ -2788,7 +3930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -2798,11 +3940,11 @@
       <c r="E20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="10">
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
@@ -2811,7 +3953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="7">
         <v>4</v>
       </c>
@@ -2821,11 +3963,11 @@
       <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="11">
         <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>46</v>
@@ -2834,15 +3976,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
@@ -2851,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -2862,7 +4004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -2873,23 +4015,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="43"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="43"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A31" s="58" t="s">
         <v>0</v>
       </c>
@@ -2900,8 +4042,8 @@
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="57" t="s">
         <v>31</v>
       </c>
@@ -2912,7 +4054,7 @@
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -2921,7 +4063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="5">
         <v>1</v>
       </c>
@@ -2932,7 +4074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -2943,7 +4085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" s="7">
         <v>3</v>
       </c>
@@ -2954,15 +4096,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -2971,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="5">
         <v>1</v>
       </c>
@@ -2982,7 +4124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -2993,15 +4135,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="56" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
@@ -3010,7 +4152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -3021,15 +4163,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C48" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
     </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -3038,7 +4180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -3049,9 +4191,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:G1"/>
@@ -3072,8 +4214,11 @@
     <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3081,16 +4226,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A47" zoomScale="76" zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView view="pageLayout" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="45.69921875" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
@@ -3102,12 +4247,12 @@
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3118,7 +4263,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="62" t="s">
         <v>65</v>
@@ -3135,10 +4280,10 @@
       <c r="H3" s="64"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66" t="s">
@@ -3152,7 +4297,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -3163,7 +4308,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
         <v>70</v>
@@ -3188,7 +4333,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -3205,15 +4350,15 @@
       <c r="F7" s="25">
         <v>256</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -3230,13 +4375,13 @@
       <c r="F8" s="25">
         <v>256</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="47" t="s">
-        <v>131</v>
+      <c r="G8" s="52"/>
+      <c r="H8" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -3253,13 +4398,13 @@
       <c r="F9" s="25">
         <v>256</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="44" t="s">
         <v>81</v>
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -3276,13 +4421,13 @@
       <c r="F10" s="25">
         <v>256</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="52"/>
+      <c r="H10" s="44" t="s">
         <v>109</v>
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -3297,13 +4442,13 @@
         <v>84</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="47" t="s">
-        <v>132</v>
+      <c r="G11" s="52"/>
+      <c r="H11" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -3320,13 +4465,13 @@
       <c r="F12" s="25">
         <v>256</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="45" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="44" t="s">
         <v>86</v>
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
@@ -3343,13 +4488,13 @@
       <c r="F13" s="25">
         <v>256</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="45" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="44" t="s">
         <v>89</v>
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -3364,13 +4509,13 @@
         <v>84</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="47" t="s">
-        <v>133</v>
+      <c r="G14" s="52"/>
+      <c r="H14" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
@@ -3385,13 +4530,13 @@
         <v>84</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="48" t="s">
-        <v>134</v>
+      <c r="G15" s="45"/>
+      <c r="H15" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3402,7 +4547,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3413,7 +4558,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3424,7 +4569,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -3435,7 +4580,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3446,7 +4591,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3457,7 +4602,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3468,7 +4613,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3479,7 +4624,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="68" t="s">
         <v>108</v>
       </c>
@@ -3492,7 +4637,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
       <c r="B25" s="62" t="s">
         <v>65</v>
@@ -3509,7 +4654,7 @@
       <c r="H25" s="64"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="70" t="s">
         <v>49</v>
@@ -3526,7 +4671,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3537,7 +4682,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="34" t="s">
         <v>70</v>
@@ -3562,7 +4707,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="31">
         <v>1</v>
@@ -3579,15 +4724,15 @@
       <c r="F29" s="25">
         <v>256</v>
       </c>
-      <c r="G29" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>135</v>
+      <c r="G29" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="31">
         <v>2</v>
@@ -3604,13 +4749,13 @@
       <c r="F30" s="25">
         <v>256</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="31">
         <v>3</v>
@@ -3627,13 +4772,13 @@
       <c r="F31" s="25">
         <v>256</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="47" t="s">
-        <v>137</v>
+      <c r="G31" s="52"/>
+      <c r="H31" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="31">
         <v>4</v>
@@ -3650,13 +4795,13 @@
       <c r="F32" s="25">
         <v>256</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="32" t="s">
         <v>96</v>
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="33">
         <v>5</v>
@@ -3671,24 +4816,24 @@
         <v>84</v>
       </c>
       <c r="F33" s="26"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="48" t="s">
-        <v>133</v>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="49"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="50"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3699,7 +4844,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="62" t="s">
         <v>65</v>
@@ -3716,10 +4861,10 @@
       <c r="H36" s="64"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="66"/>
       <c r="D37" s="66" t="s">
@@ -3733,7 +4878,7 @@
       <c r="H37" s="67"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3744,7 +4889,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="34" t="s">
         <v>70</v>
@@ -3769,7 +4914,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="31">
         <v>1</v>
@@ -3786,15 +4931,15 @@
       <c r="F40" s="25">
         <v>256</v>
       </c>
-      <c r="G40" s="52" t="s">
-        <v>140</v>
+      <c r="G40" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>98</v>
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="33">
         <v>2</v>
@@ -3808,38 +4953,38 @@
       <c r="E41" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="50">
         <v>256</v>
       </c>
-      <c r="G41" s="46"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="49"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3850,7 +4995,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3861,7 +5006,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3872,7 +5017,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3883,7 +5028,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="68" t="s">
         <v>108</v>
       </c>
@@ -3896,7 +5041,7 @@
       <c r="H48" s="69"/>
       <c r="I48" s="69"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
       <c r="B49" s="62" t="s">
         <v>65</v>
@@ -3913,10 +5058,10 @@
       <c r="H49" s="64"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="66" t="s">
@@ -3930,7 +5075,7 @@
       <c r="H50" s="67"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3941,7 +5086,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
       <c r="B52" s="34" t="s">
         <v>70</v>
@@ -3966,7 +5111,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
       <c r="B53" s="31">
         <v>1</v>
@@ -3983,15 +5128,15 @@
       <c r="F53" s="25">
         <v>256</v>
       </c>
-      <c r="G53" s="52" t="s">
-        <v>142</v>
+      <c r="G53" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>101</v>
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
       <c r="B54" s="31">
         <v>2</v>
@@ -4008,13 +5153,13 @@
       <c r="F54" s="25">
         <v>256</v>
       </c>
-      <c r="G54" s="53"/>
+      <c r="G54" s="52"/>
       <c r="H54" s="32" t="s">
         <v>103</v>
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="33">
         <v>3</v>
@@ -4028,16 +5173,16 @@
       <c r="E55" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="51">
+      <c r="F55" s="50">
         <v>256</v>
       </c>
-      <c r="G55" s="46"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="27" t="s">
         <v>105</v>
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4048,7 +5193,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -4059,7 +5204,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -4103,6 +5248,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4110,18 +5258,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A80" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="9.19921875" customWidth="1"/>
+    <col min="1" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4136,7 +5284,7 @@
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -4151,180 +5299,180 @@
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" s="71" t="s">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A79" s="71" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="72"/>
-      <c r="K80" s="72"/>
-      <c r="L80" s="72"/>
-      <c r="M80" s="72"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A105" s="71" t="s">
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="53"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="53"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53"/>
+      <c r="M106" s="53"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72"/>
-      <c r="M105" s="72"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A106" s="72"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="72"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A131" s="71" t="s">
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="53"/>
+      <c r="I131" s="53"/>
+      <c r="J131" s="53"/>
+      <c r="K131" s="53"/>
+      <c r="L131" s="53"/>
+      <c r="M131" s="53"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53"/>
+      <c r="L132" s="53"/>
+      <c r="M132" s="53"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="72"/>
-      <c r="C131" s="72"/>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="72"/>
-      <c r="M131" s="72"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A132" s="72"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="72"/>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="72"/>
-      <c r="M132" s="72"/>
-    </row>
-    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="73"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
-      <c r="K133" s="73"/>
-      <c r="L133" s="73"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4337,26 +5485,49 @@
     <mergeCell ref="A105:M106"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="O166" sqref="O166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
@@ -4373,7 +5544,7 @@
       <c r="L1" s="58"/>
       <c r="M1" s="58"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -4388,7 +5559,7 @@
       <c r="L2" s="58"/>
       <c r="M2" s="58"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4410,11 +5581,14 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4422,7 +5596,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="160">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -741,9 +741,6 @@
   </si>
   <si>
     <t>tell</t>
-  </si>
-  <si>
-    <t>各キャリア対応</t>
   </si>
   <si>
     <t>情報保持</t>
@@ -1807,13 +1804,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1822,17 +1843,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1843,21 +1867,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1865,18 +1874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3417,11 +3414,11 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -3436,9 +3433,9 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
       <c r="A15" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -3453,107 +3450,107 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E29" s="53" t="s">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="E29" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
+      <c r="E32" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" t="s">
+      <c r="E34" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="53" t="s">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" t="s">
+      <c r="E36" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="53" t="s">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" t="s">
+      <c r="E38" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="53" t="s">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" t="s">
+      <c r="E40" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E40:I40"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A15:M15"/>
     <mergeCell ref="E29:I30"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E40:I40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3568,43 +3565,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="4.875" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.625" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.59765625" customWidth="1"/>
     <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.375" customWidth="1"/>
-    <col min="12" max="12" width="108.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="107.3984375" customWidth="1"/>
+    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="41"/>
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -3612,20 +3609,20 @@
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="73" t="s">
-        <v>159</v>
+      <c r="H3" s="53" t="s">
+        <v>158</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -3638,8 +3635,8 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="s">
-        <v>160</v>
+      <c r="I4" s="58" t="s">
+        <v>159</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>3</v>
@@ -3648,7 +3645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -3661,7 +3658,7 @@
       <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="11">
         <v>3</v>
       </c>
@@ -3682,7 +3679,7 @@
       <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3690,12 +3687,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H7" s="10">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
@@ -3704,17 +3701,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="56" t="s">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="H8" s="10">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -3723,7 +3720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="2"/>
       <c r="D9" s="37" t="s">
         <v>12</v>
@@ -3734,8 +3731,8 @@
       <c r="H9" s="10">
         <v>6</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>115</v>
+      <c r="I9" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -3744,7 +3741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="14">
         <v>1</v>
       </c>
@@ -3757,7 +3754,7 @@
       <c r="H10" s="10">
         <v>7</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3765,11 +3762,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H11" s="10">
         <v>8</v>
       </c>
-      <c r="I11" s="60"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -3777,16 +3774,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="56" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="H12" s="10">
         <v>9</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="2"/>
       <c r="D13" s="37" t="s">
         <v>12</v>
@@ -3805,8 +3802,8 @@
       <c r="H13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="59" t="s">
-        <v>116</v>
+      <c r="I13" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
@@ -3815,7 +3812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -3828,7 +3825,7 @@
       <c r="H14" s="10">
         <v>11</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3836,30 +3833,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H15" s="10">
         <v>12</v>
       </c>
-      <c r="I15" s="59" t="s">
-        <v>117</v>
+      <c r="I15" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="56" t="s">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
       <c r="H16" s="10">
         <v>13</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="2"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
@@ -3878,7 +3875,7 @@
       <c r="H17" s="10">
         <v>14</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="5">
         <v>1</v>
       </c>
@@ -3899,8 +3896,8 @@
       <c r="H18" s="10">
         <v>15</v>
       </c>
-      <c r="I18" s="59" t="s">
-        <v>118</v>
+      <c r="I18" s="61" t="s">
+        <v>117</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>39</v>
@@ -3909,7 +3906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -3922,7 +3919,7 @@
       <c r="H19" s="10">
         <v>16</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -3944,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
@@ -3953,7 +3950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="7">
         <v>4</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>46</v>
@@ -3976,15 +3973,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="56" t="s">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
@@ -3993,7 +3990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -4004,7 +4001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -4015,46 +4012,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="42"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="42"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="42"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="58" t="s">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A31" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="57" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -4063,7 +4060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="5">
         <v>1</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C37" s="7">
         <v>3</v>
       </c>
@@ -4096,15 +4093,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="56" t="s">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -4113,7 +4110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="5">
         <v>1</v>
       </c>
@@ -4124,7 +4121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -4135,15 +4132,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="56" t="s">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C44" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
@@ -4152,7 +4149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -4163,15 +4160,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="56" t="s">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-    </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+    </row>
+    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -4180,7 +4177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -4191,11 +4188,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="H1:K1"/>
@@ -4204,14 +4209,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4226,33 +4223,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="45.75" customWidth="1"/>
+    <col min="8" max="8" width="45.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4263,41 +4260,41 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="64"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66" t="s">
+      <c r="B4" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4308,7 +4305,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
         <v>70</v>
@@ -4333,7 +4330,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -4351,14 +4348,14 @@
         <v>256</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -4377,11 +4374,11 @@
       </c>
       <c r="G8" s="52"/>
       <c r="H8" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -4404,7 +4401,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -4423,11 +4420,11 @@
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -4444,11 +4441,11 @@
       <c r="F11" s="24"/>
       <c r="G11" s="52"/>
       <c r="H11" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -4466,21 +4463,19 @@
         <v>256</v>
       </c>
       <c r="G12" s="52"/>
-      <c r="H12" s="44" t="s">
-        <v>86</v>
-      </c>
+      <c r="H12" s="44"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>79</v>
@@ -4490,11 +4485,11 @@
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -4503,7 +4498,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>84</v>
@@ -4511,11 +4506,11 @@
       <c r="F14" s="24"/>
       <c r="G14" s="52"/>
       <c r="H14" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
@@ -4524,7 +4519,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>84</v>
@@ -4532,11 +4527,11 @@
       <c r="F15" s="26"/>
       <c r="G15" s="45"/>
       <c r="H15" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4547,7 +4542,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -4558,7 +4553,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4569,7 +4564,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -4580,7 +4575,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -4591,7 +4586,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -4602,7 +4597,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -4613,7 +4608,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -4624,54 +4619,54 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63" t="s">
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="64"/>
+      <c r="H25" s="73"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="67"/>
+      <c r="H26" s="70"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -4682,7 +4677,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="34" t="s">
         <v>70</v>
@@ -4707,7 +4702,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="31">
         <v>1</v>
@@ -4725,14 +4720,14 @@
         <v>256</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="31">
         <v>2</v>
@@ -4741,7 +4736,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>79</v>
@@ -4751,11 +4746,11 @@
       </c>
       <c r="G30" s="52"/>
       <c r="H30" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="31">
         <v>3</v>
@@ -4764,7 +4759,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>79</v>
@@ -4774,11 +4769,11 @@
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="31">
         <v>4</v>
@@ -4787,7 +4782,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>79</v>
@@ -4797,11 +4792,11 @@
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="33">
         <v>5</v>
@@ -4810,7 +4805,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>84</v>
@@ -4818,11 +4813,11 @@
       <c r="F33" s="26"/>
       <c r="G33" s="45"/>
       <c r="H33" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="48"/>
       <c r="C34" s="22"/>
@@ -4833,7 +4828,7 @@
       <c r="H34" s="49"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -4844,41 +4839,41 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="72"/>
+      <c r="D36" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63" t="s">
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="64"/>
+      <c r="H36" s="73"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66" t="s">
+      <c r="B37" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="67"/>
+      <c r="H37" s="70"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -4889,7 +4884,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="34" t="s">
         <v>70</v>
@@ -4914,7 +4909,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="31">
         <v>1</v>
@@ -4932,14 +4927,14 @@
         <v>256</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="33">
         <v>2</v>
@@ -4958,11 +4953,11 @@
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="48"/>
       <c r="C42" s="22"/>
@@ -4973,7 +4968,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="48"/>
       <c r="C43" s="22"/>
@@ -4984,7 +4979,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -4995,7 +4990,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -5006,7 +5001,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -5017,7 +5012,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -5028,54 +5023,54 @@
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63" t="s">
+      <c r="C49" s="72"/>
+      <c r="D49" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63" t="s">
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="64"/>
+      <c r="H49" s="73"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66" t="s">
+      <c r="B50" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="67"/>
+      <c r="H50" s="70"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -5086,7 +5081,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="34" t="s">
         <v>70</v>
@@ -5111,7 +5106,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="31">
         <v>1</v>
@@ -5129,14 +5124,14 @@
         <v>256</v>
       </c>
       <c r="G53" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="31">
         <v>2</v>
@@ -5145,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>76</v>
@@ -5155,11 +5150,11 @@
       </c>
       <c r="G54" s="52"/>
       <c r="H54" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="33">
         <v>3</v>
@@ -5168,7 +5163,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>76</v>
@@ -5178,11 +5173,11 @@
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -5193,7 +5188,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -5204,7 +5199,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5217,6 +5212,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -5233,17 +5239,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5258,221 +5253,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A141" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="13" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="71" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="71" t="s">
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A79" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="71" t="s">
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A80" s="56"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" s="71" t="s">
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A106" s="56"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A131" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53"/>
-      <c r="M105" s="53"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" s="53"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="53"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" s="71" t="s">
+      <c r="B131" s="56"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="56"/>
+      <c r="K131" s="56"/>
+      <c r="L131" s="56"/>
+      <c r="M131" s="56"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A132" s="56"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="56"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="56"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="B131" s="53"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="53"/>
-      <c r="M131" s="53"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="53"/>
-      <c r="M132" s="53"/>
-    </row>
-    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
-      <c r="L133" s="72"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5498,11 +5493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5518,61 +5513,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5596,7 +5591,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="テーブル定義" sheetId="5" r:id="rId3"/>
+    <sheet name="画面UI" sheetId="8" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
-    <sheet name="画面UI" sheetId="8" r:id="rId5"/>
+    <sheet name="テーブル定義" sheetId="5" r:id="rId5"/>
     <sheet name="ER図" sheetId="4" r:id="rId6"/>
     <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル定義!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$H$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -1231,13 +1231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル定義</t>
-    <rPh sb="4" eb="6">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1-3.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1275,18 +1268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4p~6p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7p~12p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13p~20p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>21p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1314,6 +1295,18 @@
     <rPh sb="34" eb="36">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4p~11p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12p～17p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18p～20p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1807,13 +1800,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1837,35 +1836,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1894,239 +1887,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>38400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="13555980"/>
-          <a:ext cx="7955280" cy="3467400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="19286220"/>
-          <a:ext cx="7993380" cy="3840480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="716280" y="25001220"/>
-          <a:ext cx="7978140" cy="4587241"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>689265</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="689265" y="30761940"/>
-          <a:ext cx="7997536" cy="4693920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247031</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="464820" y="7589520"/>
-          <a:ext cx="8469011" cy="2667000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>30481</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="739141" y="1661160"/>
-          <a:ext cx="7978140" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3059,6 +2819,239 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="13555980"/>
+          <a:ext cx="7955280" cy="3467400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="19286220"/>
+          <a:ext cx="7993380" cy="3840480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716280" y="25001220"/>
+          <a:ext cx="7978140" cy="4587241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102525</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129541</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818805" y="30868620"/>
+          <a:ext cx="7906096" cy="4693920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247031</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464820" y="7589520"/>
+          <a:ext cx="8469011" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739141" y="1661160"/>
+          <a:ext cx="7978140" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3410,135 +3403,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="E34" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
       <c r="J36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+        <v>148</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="F9" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3581,21 +3574,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="41"/>
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
@@ -3610,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>120</v>
@@ -3635,8 +3628,8 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>159</v>
+      <c r="I4" s="60" t="s">
+        <v>155</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>3</v>
@@ -3658,7 +3651,7 @@
       <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3679,7 +3672,7 @@
       <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3702,11 +3695,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="H8" s="10">
         <v>5</v>
       </c>
@@ -3731,7 +3724,7 @@
       <c r="H9" s="10">
         <v>6</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="63" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3754,7 +3747,7 @@
       <c r="H10" s="10">
         <v>7</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3766,7 +3759,7 @@
       <c r="H11" s="10">
         <v>8</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -3775,15 +3768,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="H12" s="10">
         <v>9</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3795,7 @@
       <c r="H13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="63" t="s">
         <v>115</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3825,7 +3818,7 @@
       <c r="H14" s="10">
         <v>11</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3837,7 +3830,7 @@
       <c r="H15" s="10">
         <v>12</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="63" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3848,15 +3841,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="H16" s="10">
         <v>13</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3875,7 +3868,7 @@
       <c r="H17" s="10">
         <v>14</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="65"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3896,7 +3889,7 @@
       <c r="H18" s="10">
         <v>15</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="63" t="s">
         <v>117</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3919,7 +3912,7 @@
       <c r="H19" s="10">
         <v>16</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3975,11 +3968,11 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
@@ -4029,27 +4022,27 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
@@ -4095,11 +4088,11 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
@@ -4134,11 +4127,11 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
@@ -4162,11 +4155,11 @@
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
@@ -4193,6 +4186,14 @@
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
@@ -4201,14 +4202,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4221,1031 +4214,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="8" max="8" width="45.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31">
-        <v>1</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="25">
-        <v>256</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="31">
-        <v>2</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="25">
-        <v>256</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="31">
-        <v>3</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="25">
-        <v>256</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="25">
-        <v>256</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="31">
-        <v>5</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="31">
-        <v>6</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="25">
-        <v>256</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="31">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="25">
-        <v>256</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="31">
-        <v>8</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="33">
-        <v>9</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="31">
-        <v>1</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="25">
-        <v>256</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="31">
-        <v>2</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="25">
-        <v>256</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="25">
-        <v>256</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="31">
-        <v>4</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="25">
-        <v>256</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="33">
-        <v>5</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="31">
-        <v>1</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="25">
-        <v>256</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="33">
-        <v>2</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="50">
-        <v>256</v>
-      </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="70"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="31">
-        <v>1</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="25">
-        <v>256</v>
-      </c>
-      <c r="G53" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="31">
-        <v>2</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="25">
-        <v>256</v>
-      </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="33">
-        <v>3</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="50">
-        <v>256</v>
-      </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I55" s="23"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B36:C36"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5253,7 +4236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A141" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
@@ -5298,161 +4281,161 @@
       <c r="A27" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="56"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A106" s="56"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B131" s="56"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="56"/>
-      <c r="L131" s="56"/>
-      <c r="M131" s="56"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="54"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A132" s="56"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="56"/>
-      <c r="L132" s="56"/>
-      <c r="M132" s="56"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="54"/>
+      <c r="M132" s="54"/>
     </row>
     <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="76" t="s">
@@ -5491,21 +4474,1031 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="O166" sqref="O166"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="45.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="31">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="25">
+        <v>256</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="31">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="25">
+        <v>256</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="31">
+        <v>3</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="25">
+        <v>256</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="31">
+        <v>4</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="25">
+        <v>256</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="31">
+        <v>5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="31">
+        <v>6</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="25">
+        <v>256</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="31">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="25">
+        <v>256</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="31">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="33">
+        <v>9</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="71"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="31">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="25">
+        <v>256</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="31">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="25">
+        <v>256</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="25">
+        <v>256</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="31">
+        <v>4</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="25">
+        <v>256</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="68"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="31">
+        <v>1</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="25">
+        <v>256</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="33">
+        <v>2</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="50">
+        <v>256</v>
+      </c>
+      <c r="G41" s="45"/>
+      <c r="H41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="68"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="71"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="31">
+        <v>1</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="25">
+        <v>256</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="31">
+        <v>2</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="25">
+        <v>256</v>
+      </c>
+      <c r="G54" s="52"/>
+      <c r="H54" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="33">
+        <v>3</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="50">
+        <v>256</v>
+      </c>
+      <c r="G55" s="45"/>
+      <c r="H55" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5523,51 +5516,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル定義!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$H$1:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$AG$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
-  <si>
-    <t>機能一覧</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
   <si>
     <t>災害情報の検索</t>
     <rPh sb="0" eb="2">
@@ -117,16 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録ページ機能</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録機能</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -156,27 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能名</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン機能</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -184,44 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録機能で登録したアカウント情報と入力された値を比較し真だった場合ログイン成功とする。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>card機能</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -262,31 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダーに追加されている検索バーにキーワードを入力することで自分が知りたい情報をピンポイントで検索できる</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿機能</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -297,54 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページ内に設置されている投稿ボタンを押すことで投稿できる（投稿文、画像、動画、タグ）</t>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各災害タイムライン</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サイガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿内容表示エリア</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -424,14 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページタブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去投稿、画像一覧、アカウント管理、利用規約、ガイドラインに遷移</t>
     <rPh sb="0" eb="2">
       <t>カコ</t>
@@ -506,16 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント管理画面</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録情報修正</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -565,19 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用規約画面</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利用規約を表示する</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
@@ -587,13 +390,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガイドライン画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1309,12 +1105,149 @@
     <t>18p～20p</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ内に設置されている投稿ボタンを押すことで投稿できる
+　　　　　　　　　　　　　　　　　　　　　　　　　　（投稿文、画像、動画、タグ）</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーに追加されている検索バーにキーワードを入力することで、
+自分が知りたい情報をピンポイントで検索できる</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能で登録したアカウント情報と入力された値を比較し、
+真だった場合ログイン成功とする</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報共有webアプリケーション</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,6 +1324,42 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="HGSｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="HGSｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="HGSｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="HGSｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1418,21 +1387,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1571,56 +1531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1633,245 +1543,361 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3403,135 +3429,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="E29" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E29" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
+        <v>125</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+        <v>127</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
+        <v>128</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
+        <v>132</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3556,659 +3582,1412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="F9" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.59765625" customWidth="1"/>
-    <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.3984375" customWidth="1"/>
-    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="52" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+    </row>
+    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="77"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="78"/>
+    </row>
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="79"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="80"/>
+    </row>
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="61"/>
+    </row>
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="57">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="58"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="50">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="51"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="50">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="51"/>
+    </row>
+    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="50">
+        <v>4</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="51"/>
+    </row>
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="50">
+        <v>5</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="52"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="52"/>
+    </row>
+    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="50">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="51"/>
+    </row>
+    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="50">
         <v>7</v>
       </c>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="51"/>
+    </row>
+    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="50">
         <v>8</v>
       </c>
-      <c r="H6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H7" s="10">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="52"/>
+    </row>
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="50"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="52"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="50">
+        <v>9</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="52"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="52"/>
+    </row>
+    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="50">
         <v>10</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="51"/>
+    </row>
+    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="50">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="H8" s="10">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="51"/>
+    </row>
+    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="50">
+        <v>12</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="51"/>
+    </row>
+    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="50">
+        <v>13</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="51"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="50">
+        <v>14</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="51"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="50">
         <v>15</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="51"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="50">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="2"/>
-      <c r="D9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="10">
-        <v>6</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="51"/>
+    </row>
+    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="50">
+        <v>17</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="51"/>
+    </row>
+    <row r="26" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="53">
         <v>18</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="10">
-        <v>7</v>
-      </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H11" s="10">
-        <v>8</v>
-      </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="H12" s="10">
-        <v>9</v>
-      </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="2"/>
-      <c r="D13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="10">
-        <v>10</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="10">
-        <v>11</v>
-      </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H15" s="10">
-        <v>12</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="H16" s="10">
-        <v>13</v>
-      </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="2"/>
-      <c r="D17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="10">
-        <v>14</v>
-      </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="10">
-        <v>15</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="10">
-        <v>16</v>
-      </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
-      <c r="C20" s="16">
-        <v>3</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="10">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="7">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="11">
-        <v>18</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="42"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="5">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="2"/>
-      <c r="D40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-    </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="2"/>
-      <c r="D49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="56"/>
+    </row>
+    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A33:G33"/>
+  <mergeCells count="74">
+    <mergeCell ref="O25:AG25"/>
+    <mergeCell ref="O26:AG26"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:H11"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="O10:AG11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="I14:N15"/>
+    <mergeCell ref="O14:AG15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C12:H17"/>
+    <mergeCell ref="I16:N17"/>
+    <mergeCell ref="O16:AG17"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="O5:AG5"/>
+    <mergeCell ref="O6:AG6"/>
+    <mergeCell ref="O7:AG7"/>
+    <mergeCell ref="O8:AG8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C6:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="C20:H22"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="O20:AG20"/>
+    <mergeCell ref="O21:AG21"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="O23:AG23"/>
+    <mergeCell ref="O24:AG24"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="O18:AG18"/>
+    <mergeCell ref="O19:AG19"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O12:AG12"/>
+    <mergeCell ref="O13:AG13"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O9:AG9"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="G2:L3"/>
+    <mergeCell ref="M2:X3"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AC3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="26" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -4220,7 +4999,7 @@
       <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4240,217 +5019,217 @@
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="9.19921875" customWidth="1"/>
+    <col min="1" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A79" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A105" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A131" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-    </row>
-    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="76"/>
-      <c r="H133" s="76"/>
-      <c r="I133" s="76"/>
-      <c r="J133" s="76"/>
-      <c r="K133" s="76"/>
-      <c r="L133" s="76"/>
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4480,991 +5259,1002 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="45.69921875" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="66" t="s">
+    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4">
+        <v>256</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="4">
+        <v>256</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4">
+        <v>256</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4">
+        <v>256</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67" t="s">
+      <c r="E11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70" t="s">
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4">
+        <v>256</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70" t="s">
+      <c r="D13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="28" t="s">
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4">
+        <v>256</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="4">
+        <v>256</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="4">
+        <v>256</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="4">
+        <v>256</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="4">
+        <v>256</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="12">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31">
+      <c r="E33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="4">
         <v>256</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="31">
+      <c r="G40" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="24">
+        <v>256</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="38"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="G52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="4">
         <v>256</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="31">
+      <c r="G53" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="10">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="4">
+        <v>256</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="12">
         <v>3</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="C55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="24">
         <v>256</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="25">
-        <v>256</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="31">
-        <v>5</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="31">
-        <v>6</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="25">
-        <v>256</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="31">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="G55" s="19"/>
+      <c r="H55" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="25">
-        <v>256</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="31">
-        <v>8</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="33">
-        <v>9</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="31">
-        <v>1</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="25">
-        <v>256</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="31">
-        <v>2</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="25">
-        <v>256</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="25">
-        <v>256</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="31">
-        <v>4</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="25">
-        <v>256</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="33">
-        <v>5</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="68"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="31">
-        <v>1</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="25">
-        <v>256</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="33">
-        <v>2</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="50">
-        <v>256</v>
-      </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="71"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="31">
-        <v>1</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="25">
-        <v>256</v>
-      </c>
-      <c r="G53" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="31">
-        <v>2</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="25">
-        <v>256</v>
-      </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="33">
-        <v>3</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="50">
-        <v>256</v>
-      </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I55" s="23"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -5481,17 +6271,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5510,57 +6289,57 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5584,7 +6363,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -34,20 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
-  <si>
-    <t>災害情報の検索</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="147">
   <si>
     <t>マイページへ移動</t>
     <rPh sb="6" eb="8">
@@ -63,16 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>災害または、キーワードで検索</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタンを押すとマイページへ遷移</t>
     <rPh sb="4" eb="5">
       <t>オ</t>
@@ -103,25 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウントID、アカウント名、メールアドレス、パスワード、生年月日、電話番号</t>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン機能</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -143,32 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カルーセルに注目トピックとしてみてもらいたい記事の画像とリンクを貼る</t>
-    <rPh sb="6" eb="8">
-      <t>チュウモク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索機能</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿機能</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -192,25 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cardに紐づけられているタグに一致する災害タイムラインに画面を遷移する</t>
-    <rPh sb="5" eb="6">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タグで分別された投稿を投稿時間で降順にして表示する</t>
     <rPh sb="3" eb="5">
       <t>ブンベツ</t>
@@ -229,59 +142,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害ページに指定されているタグで（投稿文、画像、動画）を投稿する</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去投稿、画像一覧、アカウント管理、利用規約、ガイドラインに遷移</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1113,99 +973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページ内に設置されている投稿ボタンを押すことで投稿できる
-　　　　　　　　　　　　　　　　　　　　　　　　　　（投稿文、画像、動画、タグ）</t>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダーに追加されている検索バーにキーワードを入力することで、
-自分が知りたい情報をピンポイントで検索できる</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録機能で登録したアカウント情報と入力された値を比較し、
-真だった場合ログイン成功とする</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -1239,6 +1006,228 @@
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索バーにキーワードを入力し、一致した検索結果のページへ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントID、アカウント名、メールアドレス、パスワード、生年月日、電話番号を入力しアカウントテーブルへ登録</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能で登録したアカウント情報と入力された値を比較し、真だった場合ログイン成功とする</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すとcardに指定されている災害ページへ遷移</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルーセルに注目トピックとして見せたい記事の画像とリンクを貼る</t>
+    <rPh sb="6" eb="8">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面内に設置されている投稿ボタンを押すことで投稿モーダルが出現しモーダル内のフォームに要素を入力後投稿ボタン押下で投稿できる</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>災害情報の検索※１</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（投稿文、画像、動画）を投稿する</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去投稿、画像一覧、アカウント管理、設定画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1387,7 +1376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1615,19 +1604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1652,7 +1628,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,6 +1708,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,158 +1738,143 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3433,131 +3415,131 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E29" s="27" t="s">
+    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+      <c r="A15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="E29" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
+      <c r="E40" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" t="s">
         <v>127</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3585,137 +3567,137 @@
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+      <selection activeCell="A5" sqref="A5:AG24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="52" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-    </row>
-    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-    </row>
-    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="78"/>
-    </row>
-    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="79"/>
+    <row r="1" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="39"/>
+    </row>
+    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
+    </row>
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="32"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3741,1170 +3723,1142 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="80"/>
-    </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="61"/>
-    </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG4" s="33"/>
+    </row>
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="55"/>
+    </row>
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="57">
         <v>1</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="60"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="43">
+        <v>2</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="56"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="43">
         <v>3</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="58"/>
-    </row>
-    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50">
-        <v>2</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="56"/>
+    </row>
+    <row r="9" spans="1:33" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="43">
         <v>4</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="51"/>
-    </row>
-    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="50">
-        <v>3</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="63"/>
+    </row>
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="43">
         <v>5</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="51"/>
-    </row>
-    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50">
-        <v>4</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="63"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="63"/>
+    </row>
+    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="43">
         <v>6</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="56"/>
+    </row>
+    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="51"/>
-    </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50">
-        <v>5</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="56"/>
+    </row>
+    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="43">
         <v>8</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="52"/>
-    </row>
-    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="52"/>
-    </row>
-    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="50">
-        <v>6</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="63"/>
+    </row>
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="63"/>
+    </row>
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="43">
         <v>9</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="80"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="80"/>
+    </row>
+    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="43">
+        <v>10</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="80"/>
+    </row>
+    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="43">
+        <v>11</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="80"/>
+    </row>
+    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="43">
+        <v>12</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="80"/>
+    </row>
+    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="43">
+        <v>13</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="51"/>
-    </row>
-    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="50">
-        <v>7</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="51"/>
-    </row>
-    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50">
-        <v>8</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="52"/>
-    </row>
-    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="52"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="50">
-        <v>9</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="52"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="52"/>
-    </row>
-    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="50">
-        <v>10</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="80"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A22" s="43">
         <v>14</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="80"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A23" s="43">
+        <v>15</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="80"/>
+    </row>
+    <row r="24" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="64">
         <v>16</v>
       </c>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="51"/>
-    </row>
-    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="50">
-        <v>11</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="51"/>
-    </row>
-    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="50">
-        <v>12</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="51"/>
-    </row>
-    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="50">
-        <v>13</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="51"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="50">
-        <v>14</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49" t="s">
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="51"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="50">
-        <v>15</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="51"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="50">
-        <v>16</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="51"/>
-    </row>
-    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="50">
-        <v>17</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="51"/>
-    </row>
-    <row r="26" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="53">
-        <v>18</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="56"/>
-    </row>
-    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="82"/>
+    </row>
+    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-    </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-    </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="O25:AG25"/>
-    <mergeCell ref="O26:AG26"/>
+  <mergeCells count="72">
+    <mergeCell ref="O19:AG19"/>
+    <mergeCell ref="O20:AG20"/>
+    <mergeCell ref="O21:AG21"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="O24:AG24"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:H11"/>
     <mergeCell ref="I10:N11"/>
@@ -4913,24 +4867,25 @@
     <mergeCell ref="I14:N15"/>
     <mergeCell ref="O14:AG15"/>
     <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C12:H17"/>
-    <mergeCell ref="I16:N17"/>
-    <mergeCell ref="O16:AG17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C12:H15"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="O5:AG5"/>
     <mergeCell ref="O6:AG6"/>
     <mergeCell ref="O7:AG7"/>
     <mergeCell ref="O8:AG8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="C6:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="C20:H22"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="O23:AG23"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C18:H20"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="O18:AG18"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -4942,41 +4897,27 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="O20:AG20"/>
-    <mergeCell ref="O21:AG21"/>
-    <mergeCell ref="O22:AG22"/>
-    <mergeCell ref="O23:AG23"/>
-    <mergeCell ref="O24:AG24"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="O18:AG18"/>
-    <mergeCell ref="O19:AG19"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O12:AG12"/>
-    <mergeCell ref="O13:AG13"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O9:AG9"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="G2:L3"/>
     <mergeCell ref="M2:X3"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O9:AG9"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="O16:AG16"/>
+    <mergeCell ref="O17:AG17"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O12:AG12"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="AC2:AG2"/>
     <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="O13:AG13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4999,7 +4940,7 @@
       <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5019,217 +4960,217 @@
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="13" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-    </row>
-    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="33"/>
-      <c r="L133" s="33"/>
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A79" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="34"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A131" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="34"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
+      <c r="J133" s="67"/>
+      <c r="K133" s="67"/>
+      <c r="L133" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5259,29 +5200,29 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="45.75" customWidth="1"/>
+    <col min="8" max="8" width="45.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5292,41 +5233,41 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="41"/>
+      <c r="B3" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="75"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="38"/>
+      <c r="B4" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="72"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5337,159 +5278,159 @@
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4">
         <v>256</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4">
         <v>256</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4">
         <v>256</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4">
         <v>256</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="26"/>
       <c r="H11" s="20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4">
         <v>256</v>
@@ -5498,72 +5439,72 @@
       <c r="H12" s="18"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="10">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4">
         <v>256</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="26"/>
       <c r="H14" s="20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="12">
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="19"/>
       <c r="H15" s="21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5574,7 +5515,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5585,7 +5526,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5596,7 +5537,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5607,7 +5548,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5618,7 +5559,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5629,7 +5570,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5640,7 +5581,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5651,54 +5592,54 @@
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="41"/>
+      <c r="B25" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="75"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="38"/>
+      <c r="B26" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="72"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5709,147 +5650,147 @@
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="H28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
         <v>256</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F30" s="4">
         <v>256</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F31" s="4">
         <v>256</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="10">
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F32" s="4">
         <v>256</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="12">
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="22"/>
       <c r="C34" s="1"/>
@@ -5860,7 +5801,7 @@
       <c r="H34" s="23"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5871,41 +5812,41 @@
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="41"/>
+      <c r="B36" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="75"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="38"/>
+      <c r="B37" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="72"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5916,80 +5857,80 @@
       <c r="H38" s="1"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="H39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="10">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F40" s="4">
         <v>256</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="12">
         <v>2</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F41" s="24">
         <v>256</v>
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="22"/>
       <c r="C42" s="1"/>
@@ -6000,7 +5941,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1"/>
@@ -6011,7 +5952,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6022,7 +5963,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6033,7 +5974,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6044,7 +5985,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6055,54 +5996,54 @@
       <c r="H47" s="1"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="41"/>
+      <c r="B49" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="75"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="38"/>
+      <c r="B50" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="72"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6113,103 +6054,103 @@
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="H52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="10">
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F53" s="4">
         <v>256</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="10">
         <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F54" s="4">
         <v>256</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="12">
         <v>3</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F55" s="24">
         <v>256</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6220,7 +6161,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6231,7 +6172,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6289,57 +6230,57 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6363,7 +6304,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書.xlsx
+++ b/設計書/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル定義!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル定義!$A$1:$H$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$AG$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
   <si>
     <t>マイページへ移動</t>
     <rPh sb="6" eb="8">
@@ -372,9 +372,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>ユーザー識別　ユニーク制約</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -430,12 +427,6 @@
   </si>
   <si>
     <t>tags</t>
-  </si>
-  <si>
-    <t>タグ識別</t>
-  </si>
-  <si>
-    <t>ユニーク制約</t>
   </si>
   <si>
     <t>post_tags</t>
@@ -758,13 +749,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>生年月日</t>
     <rPh sb="0" eb="4">
       <t>セイネンガッピ</t>
@@ -789,10 +773,6 @@
     <rPh sb="2" eb="4">
       <t>ニチジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿識別ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -854,10 +834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿タグテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1228,6 +1204,73 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名、UNIQUE制約</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿識別ID、AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ識別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mediumblob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像データ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>制約</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>セイヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1376,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1621,6 +1664,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1628,7 +1723,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,6 +1824,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,6 +1836,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,128 +1938,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3415,131 +3528,131 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="E29" s="34" t="s">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E29" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="E38" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D34" t="s">
+      <c r="E40" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="34" t="s">
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" t="s">
         <v>121</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3566,16 +3679,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:AG24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -3610,87 +3723,87 @@
       <c r="AF1" s="30"/>
       <c r="AG1" s="30"/>
     </row>
-    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="39"/>
-    </row>
-    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="41"/>
-    </row>
-    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="69"/>
+    </row>
+    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="71"/>
+    </row>
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="32"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3725,835 +3838,835 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="33"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="55"/>
-    </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="52"/>
+    </row>
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="57">
         <v>1</v>
       </c>
       <c r="B6" s="58"/>
-      <c r="C6" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59" t="s">
+      <c r="C6" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="60"/>
-    </row>
-    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="43">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="44">
         <v>2</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="42" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="56"/>
-    </row>
-    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="43">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="55"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="42" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="56"/>
-    </row>
-    <row r="9" spans="1:33" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="43">
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="55"/>
+    </row>
+    <row r="9" spans="1:33" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44">
         <v>4</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="47"/>
+    </row>
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44">
+        <v>5</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="47"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="47"/>
+    </row>
+    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44">
+        <v>6</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="55"/>
+    </row>
+    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="55"/>
+    </row>
+    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="44">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="47"/>
+    </row>
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="44"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="47"/>
+    </row>
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="44">
+        <v>9</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="62" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="39"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="63"/>
-    </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="43">
-        <v>5</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42" t="s">
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="39"/>
+    </row>
+    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="44">
+        <v>10</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="62" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="63"/>
-    </row>
-    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="63"/>
-    </row>
-    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="43">
-        <v>6</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44" t="s">
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="39"/>
+    </row>
+    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44">
+        <v>11</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="39"/>
+    </row>
+    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="44">
+        <v>12</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="39"/>
+    </row>
+    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="44">
+        <v>13</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="56"/>
-    </row>
-    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="43">
-        <v>7</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="56"/>
-    </row>
-    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="43">
-        <v>8</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="63"/>
-    </row>
-    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="63"/>
-    </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="43">
-        <v>9</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="39"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="44">
+        <v>14</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="39"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="44">
+        <v>15</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="80"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="80"/>
-    </row>
-    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="43">
-        <v>10</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="39"/>
+    </row>
+    <row r="24" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="48">
+        <v>16</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="80"/>
-    </row>
-    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="43">
-        <v>11</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="80"/>
-    </row>
-    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="43">
-        <v>12</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="80"/>
-    </row>
-    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="43">
-        <v>13</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="80"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A22" s="43">
-        <v>14</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="80"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A23" s="43">
-        <v>15</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="80"/>
-    </row>
-    <row r="24" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="64">
-        <v>16</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="81" t="s">
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="82"/>
-    </row>
-    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="43"/>
+    </row>
+    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4586,16 +4699,16 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
+    <row r="26" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="16"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -4604,7 +4717,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -4613,7 +4726,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -4622,7 +4735,7 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -4631,7 +4744,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -4640,7 +4753,7 @@
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -4649,7 +4762,7 @@
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
@@ -4658,7 +4771,7 @@
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
@@ -4667,7 +4780,7 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -4676,7 +4789,7 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -4685,7 +4798,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -4694,7 +4807,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -4703,7 +4816,7 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -4712,7 +4825,7 @@
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -4721,7 +4834,7 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -4730,7 +4843,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -4739,7 +4852,7 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -4748,7 +4861,7 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -4757,7 +4870,7 @@
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -4766,7 +4879,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -4775,7 +4888,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -4784,7 +4897,7 @@
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -4793,7 +4906,7 @@
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -4802,7 +4915,7 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -4811,7 +4924,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -4820,7 +4933,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -4829,7 +4942,7 @@
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -4838,52 +4951,30 @@
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="O19:AG19"/>
-    <mergeCell ref="O20:AG20"/>
-    <mergeCell ref="O21:AG21"/>
-    <mergeCell ref="O22:AG22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="O24:AG24"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:H11"/>
-    <mergeCell ref="I10:N11"/>
-    <mergeCell ref="O10:AG11"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="I14:N15"/>
-    <mergeCell ref="O14:AG15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C12:H15"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="O5:AG5"/>
-    <mergeCell ref="O6:AG6"/>
-    <mergeCell ref="O7:AG7"/>
-    <mergeCell ref="O8:AG8"/>
-    <mergeCell ref="C6:H8"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="O23:AG23"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="C18:H20"/>
-    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="O16:AG16"/>
+    <mergeCell ref="O17:AG17"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O12:AG12"/>
+    <mergeCell ref="O13:AG13"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="G2:L3"/>
+    <mergeCell ref="M2:X3"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O9:AG9"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AC3:AG3"/>
     <mergeCell ref="O18:AG18"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="A5:B5"/>
@@ -4900,24 +4991,46 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="G2:L3"/>
-    <mergeCell ref="M2:X3"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O9:AG9"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="O5:AG5"/>
+    <mergeCell ref="O6:AG6"/>
+    <mergeCell ref="O7:AG7"/>
+    <mergeCell ref="O8:AG8"/>
+    <mergeCell ref="C6:H8"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C12:H15"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C18:H20"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:H11"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="O10:AG11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="I14:N15"/>
+    <mergeCell ref="O14:AG15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="O19:AG19"/>
+    <mergeCell ref="O20:AG20"/>
+    <mergeCell ref="O21:AG21"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O24:AG24"/>
+    <mergeCell ref="O23:AG23"/>
     <mergeCell ref="I22:N22"/>
     <mergeCell ref="I23:N23"/>
-    <mergeCell ref="O16:AG16"/>
-    <mergeCell ref="O17:AG17"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O12:AG12"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="O13:AG13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4940,7 +5053,7 @@
       <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4960,217 +5073,217 @@
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="9.19921875" customWidth="1"/>
+    <col min="1" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="66" t="s">
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" s="66" t="s">
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A79" s="66" t="s">
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A105" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="34"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A131" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
-      <c r="L131" s="34"/>
-      <c r="M131" s="34"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="34"/>
-      <c r="M132" s="34"/>
-    </row>
-    <row r="133" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="67"/>
-      <c r="J133" s="67"/>
-      <c r="K133" s="67"/>
-      <c r="L133" s="67"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="73"/>
+      <c r="L133" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5194,35 +5307,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="45.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5233,41 +5348,41 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71" t="s">
+      <c r="B4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5278,7 +5393,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>44</v>
@@ -5303,7 +5418,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10">
         <v>1</v>
@@ -5318,17 +5433,17 @@
         <v>50</v>
       </c>
       <c r="F7" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <v>2</v>
@@ -5337,21 +5452,21 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="4">
         <v>256</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="20" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="10">
         <v>3</v>
@@ -5360,21 +5475,21 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4">
         <v>256</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <v>4</v>
@@ -5383,21 +5498,21 @@
         <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4">
         <v>256</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="10">
         <v>5</v>
@@ -5406,19 +5521,19 @@
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="26"/>
       <c r="H11" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <v>6</v>
@@ -5427,10 +5542,10 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4">
         <v>256</v>
@@ -5439,30 +5554,30 @@
       <c r="H12" s="18"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="10">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>256</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
         <v>8</v>
@@ -5471,19 +5586,19 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="26"/>
       <c r="H14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12">
         <v>9</v>
@@ -5492,19 +5607,19 @@
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="19"/>
       <c r="H15" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5515,7 +5630,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5526,7 +5641,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5537,7 +5652,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5548,7 +5663,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5559,7 +5674,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5570,7 +5685,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5581,7 +5696,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5592,54 +5707,54 @@
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74" t="s">
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71" t="s">
+      <c r="C26" s="78"/>
+      <c r="D26" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="72"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5650,7 +5765,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="13" t="s">
         <v>44</v>
@@ -5675,7 +5790,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
         <v>1</v>
@@ -5690,17 +5805,17 @@
         <v>50</v>
       </c>
       <c r="F29" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="10">
         <v>2</v>
@@ -5709,239 +5824,249 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="4">
         <v>256</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
+      <c r="C31" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="4">
-        <v>256</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="26"/>
       <c r="H31" s="20" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="10">
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="4">
         <v>256</v>
       </c>
       <c r="G32" s="26"/>
-      <c r="H32" s="11" t="s">
-        <v>69</v>
+      <c r="H32" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>5</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4">
+        <v>256</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="12">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="23"/>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74" t="s">
+      <c r="C37" s="87"/>
+      <c r="D37" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74" t="s">
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71" t="s">
+      <c r="H37" s="76"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="85"/>
+      <c r="D38" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D40" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G40" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="10">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
+        <v>255</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="24">
         <v>256</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="12">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="24">
-        <v>256</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1"/>
@@ -5952,18 +6077,18 @@
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5974,7 +6099,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5985,7 +6110,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5996,183 +6121,183 @@
       <c r="H47" s="1"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="73" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74" t="s">
+      <c r="C50" s="87"/>
+      <c r="D50" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74" t="s">
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="75"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71" t="s">
+      <c r="H50" s="76"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="85"/>
+      <c r="D51" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="72"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="79"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="10">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="4">
-        <v>256</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="4">
-        <v>256</v>
-      </c>
-      <c r="G54" s="26"/>
+        <v>255</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="H54" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="4">
+        <v>255</v>
+      </c>
+      <c r="G55" s="26"/>
+      <c r="H55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="12">
         <v>3</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="D56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="24">
-        <v>256</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="F56" s="24">
+        <v>255</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6183,20 +6308,21 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A49:I49"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -6211,7 +6337,17 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6230,57 +6366,57 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6304,7 +6440,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
